--- a/特征指标具体含义.xlsx
+++ b/特征指标具体含义.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouwentao/Desktop/数据驱动/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1CA10-368D-8C40-A25B-BF5AE5C591E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B87DC-2D48-6944-A161-B38A1BE211B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D396E437-B3E7-6D41-A904-7D25F2F786E7}"/>
   </bookViews>
@@ -30,8 +30,37 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5C07AA8A-C6ED-4841-B624-D8D9074595F4}</author>
+    <author>tc={6F06C6CB-BF65-3D4A-BFDF-9075AC3C53CF}</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{5C07AA8A-C6ED-4841-B624-D8D9074595F4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    将所有的时间差已图标的形式表现出来
+答复:
+    列表的形式表现出来</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{6F06C6CB-BF65-3D4A-BFDF-9075AC3C53CF}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    图表的形式表现出来</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>颗粒度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活性度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +110,248 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流入</t>
+    <t>特征指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流入数据集数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流出数据集数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流入数据集频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流出数据集频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流入数据集大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流出数据集大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集中数据属性的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集的大小（单位：MB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据条数变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据大小变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越多越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越大越好</t>
+  </si>
+  <si>
+    <t>机器获取</t>
+  </si>
+  <si>
+    <t>机器获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该数据集由多少个旧数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数据集由多少个旧数据集生成，该动作发生的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数据集由多少个旧数据集生成，该动作时发生时旧数据集的总大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越高越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越大越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间差越短越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对平台中单个数据集的评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集的数据条数的与上一次的变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集的数据大小的与上一次的变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化率为正则好</t>
+  </si>
+  <si>
+    <t>变化率为正则好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（未确定定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数据集参与生成多少个新的数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数据集参与生成多少个新的数据集，该动作发生的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数据集参与生成多少个新的数据集，该动作时发生时新数据集的总大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计访问（读出）该数据集的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计更新（写入）该数据集的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上次更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时间差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该次访问（读出）数据集的时间与上次访问的时间差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数越高越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集中的数据条数（数据包[文件]的多少）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +372,77 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -136,8 +469,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -155,6 +503,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Happy" id="{D8FBDF1F-190E-6E4B-8815-1BC6DAF210D4}" userId="S::hm18171@office365home.vip::98124be2-e6f9-41ab-9f0c-1137ac641a71" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,89 +806,322 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C12" dT="2019-08-21T06:30:45.86" personId="{D8FBDF1F-190E-6E4B-8815-1BC6DAF210D4}" id="{5C07AA8A-C6ED-4841-B624-D8D9074595F4}">
+    <text>将所有的时间差已图标的形式表现出来</text>
+  </threadedComment>
+  <threadedComment ref="C12" dT="2019-08-21T06:32:10.01" personId="{D8FBDF1F-190E-6E4B-8815-1BC6DAF210D4}" id="{F2F2BEF8-0EEE-3344-98C9-CCBCC2A5AF41}" parentId="{5C07AA8A-C6ED-4841-B624-D8D9074595F4}">
+    <text>列表的形式表现出来</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2019-08-21T06:37:01.52" personId="{D8FBDF1F-190E-6E4B-8815-1BC6DAF210D4}" id="{6F06C6CB-BF65-3D4A-BFDF-9075AC3C53CF}">
+    <text>图表的形式表现出来</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B644772E-0C17-A14E-ACC8-E9DA4CCFFBD6}">
-  <dimension ref="A2:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B644772E-0C17-A14E-ACC8-E9DA4CCFFBD6}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="37" customHeight="1"/>
-    <row r="3" spans="1:2">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="37" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>